--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1818,7 +1819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1829,17 +1830,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1870,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5879</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1865,13 +1908,575 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>870008</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0896</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872014</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管乾利一年持有期债券C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7139</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4764</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>69.30</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3903</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161609</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通动力先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2165</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001152</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>融通新区域新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>79.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>23</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>5.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2407,7 +2408,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,17 +2419,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2438,14 +2459,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.72</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0648</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -2454,14 +2497,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.18</v>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3267</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -2470,13 +2535,325 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>75.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519626</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河君盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>23</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>5.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2768,7 +2769,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2779,17 +2780,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2799,14 +2820,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0143</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2815,14 +2858,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.72</v>
+          <t>003396</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红优享红利沪港深灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2831,14 +2896,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.18</v>
+          <t>011911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2847,13 +2934,417 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005449</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011936</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519678</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银河消费驱动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011912</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏消费优选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005329</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011937</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏阿尔法精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005330</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富民安增益定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>23</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>5.35</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>2.32</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>5.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.18</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>23</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>5.35</v>
       </c>
     </row>
@@ -566,6 +583,288 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7343</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1039,7 +1338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1399,7 +1698,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1987,7 +2286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2423,7 +2722,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
+++ b/数据整理/stocks/A股/深证主板/002154-报喜鸟.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.32</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>3.18</v>
+        <v>5.72</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>23</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>5.35</v>
       </c>
     </row>
@@ -583,6 +600,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1187</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512040</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证价值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007142</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007141</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉合稳健增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>32.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -864,7 +1279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1338,7 +1753,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1698,7 +2113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2286,7 +2701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2722,7 +3137,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
